--- a/biology/Botanique/Chalange_et_Bonnet/Chalange_et_Bonnet.xlsx
+++ b/biology/Botanique/Chalange_et_Bonnet/Chalange_et_Bonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chalange et Bonnet était une entreprise française de filets de bois et de modèles réduits créée à Paris en 1923[1] et disparue au début des années 1980[2].
+Chalange et Bonnet était une entreprise française de filets de bois et de modèles réduits créée à Paris en 1923 et disparue au début des années 1980.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalange et Bonnet était une société fondée en 1923, situé au 13-15 Passage Gustave-Lepeu à Paris, ayant reprise les activités de l'ancienne Maison Charles Hergen. Son domaine d'origine était la fabrication de filets de bois et de bandes de mosaïques pour les meubles[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalange et Bonnet était une société fondée en 1923, situé au 13-15 Passage Gustave-Lepeu à Paris, ayant reprise les activités de l'ancienne Maison Charles Hergen. Son domaine d'origine était la fabrication de filets de bois et de bandes de mosaïques pour les meubles. 
 À cette activité est venue s'ajouter une production abondante de boîtes de construction de modèles réduits, essentiellement d'avions. Chaque boîte, pour les avions, contenait un plan, les baguettes et planches de bois imprimées en balsa avec le motif des pièces à découper, du papier japon ainsi que quelques accessoires en fonction du modèle.
-L'activité a continué pendant la Seconde Guerre mondiale sous la marque Chalange et Bonnet, ainsi que sous la raison sociale de la Société Bâtir[4].
+L'activité a continué pendant la Seconde Guerre mondiale sous la marque Chalange et Bonnet, ainsi que sous la raison sociale de la Société Bâtir.
 Les produits étaient commercialisés dans les boutiques spécialisées en modèle réduit, certains marchands de jouets généralistes, ainsi que jusqu'à sa disparition en 1980 dans le catalogue Manufrance. Les planeurs, qui ont été largement diffusés, étaient facilement reconnaissables par leur boîte étroite, toute en longueur avec une dominante orange vif.
-À partir des années 1980, on perd la trace de l'existence de la société. Les plans des planeurs sont facilement obtenables sur internet[5], souvent redessinés par des modélistes confirmés [6]. L'absence de pièces spécifiques permet de reconstruire facilement ces modèles. Par ailleurs l'évolution de la technologie, en particulier dans le domaine de la motorisation électrique et de la radiocommande, autorise aujourd'hui une amélioration et un équipement de ces modèles qui était inenvisageable à l'époque de leur conception. Les modélistes apprécient en particulier d'équiper le C.B. 28 d'une radiocommande, voire d'une motorisation électrique additionnelle[7]. Ce planeur, reconnaissable à ses ailes en mouette, était le modèle iconique de la marque[8]. On trouve aussi parfois, d'une façon occasionnelle et en petites séries, des kits refabriqués comportant des pièces prédécoupées au laser[9].
+À partir des années 1980, on perd la trace de l'existence de la société. Les plans des planeurs sont facilement obtenables sur internet, souvent redessinés par des modélistes confirmés . L'absence de pièces spécifiques permet de reconstruire facilement ces modèles. Par ailleurs l'évolution de la technologie, en particulier dans le domaine de la motorisation électrique et de la radiocommande, autorise aujourd'hui une amélioration et un équipement de ces modèles qui était inenvisageable à l'époque de leur conception. Les modélistes apprécient en particulier d'équiper le C.B. 28 d'une radiocommande, voire d'une motorisation électrique additionnelle. Ce planeur, reconnaissable à ses ailes en mouette, était le modèle iconique de la marque. On trouve aussi parfois, d'une façon occasionnelle et en petites séries, des kits refabriqués comportant des pièces prédécoupées au laser.
 </t>
         </is>
       </c>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
